--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/29/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/29/FD_Curve.xlsx
@@ -499,21 +499,21 @@
         <v>0.124006</v>
       </c>
       <c r="B6" t="n">
-        <v>4.399850000000001</v>
+        <v>4.143890000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>4399.85</v>
+        <v>4143.89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.155041</v>
+        <v>0.155036</v>
       </c>
       <c r="B7" t="n">
-        <v>5.59453</v>
+        <v>4.590170000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>5594.53</v>
+        <v>4590.17</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>6.03906</v>
+        <v>4.89429</v>
       </c>
       <c r="C8" t="n">
-        <v>6039.06</v>
+        <v>4894.29</v>
       </c>
     </row>
     <row r="9">
@@ -532,1033 +532,1033 @@
         <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>6.51977</v>
+        <v>5.14343</v>
       </c>
       <c r="C9" t="n">
-        <v>6519.77</v>
+        <v>5143.43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247965</v>
+        <v>0.247961</v>
       </c>
       <c r="B10" t="n">
-        <v>6.85112</v>
+        <v>5.3609</v>
       </c>
       <c r="C10" t="n">
-        <v>6851.12</v>
+        <v>5360.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278891</v>
+        <v>0.278887</v>
       </c>
       <c r="B11" t="n">
-        <v>7.10378</v>
+        <v>5.53316</v>
       </c>
       <c r="C11" t="n">
-        <v>7103.78</v>
+        <v>5533.16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309816</v>
+        <v>0.309812</v>
       </c>
       <c r="B12" t="n">
-        <v>7.28412</v>
+        <v>5.67677</v>
       </c>
       <c r="C12" t="n">
-        <v>7284.12</v>
+        <v>5676.77</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340741</v>
+        <v>0.340737</v>
       </c>
       <c r="B13" t="n">
-        <v>7.45749</v>
+        <v>5.7818</v>
       </c>
       <c r="C13" t="n">
-        <v>7457.49</v>
+        <v>5781.8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371666</v>
+        <v>0.371662</v>
       </c>
       <c r="B14" t="n">
-        <v>7.58273</v>
+        <v>5.87452</v>
       </c>
       <c r="C14" t="n">
-        <v>7582.73</v>
+        <v>5874.52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402591</v>
+        <v>0.402587</v>
       </c>
       <c r="B15" t="n">
-        <v>7.65705</v>
+        <v>5.93705</v>
       </c>
       <c r="C15" t="n">
-        <v>7657.05</v>
+        <v>5937.05</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433516</v>
+        <v>0.433512</v>
       </c>
       <c r="B16" t="n">
-        <v>7.700600000000001</v>
+        <v>5.99227</v>
       </c>
       <c r="C16" t="n">
-        <v>7700.6</v>
+        <v>5992.27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464441</v>
+        <v>0.464437</v>
       </c>
       <c r="B17" t="n">
-        <v>7.71488</v>
+        <v>6.02346</v>
       </c>
       <c r="C17" t="n">
-        <v>7714.88</v>
+        <v>6023.46</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495367</v>
+        <v>0.495362</v>
       </c>
       <c r="B18" t="n">
-        <v>7.706510000000001</v>
+        <v>6.04383</v>
       </c>
       <c r="C18" t="n">
-        <v>7706.51</v>
+        <v>6043.83</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526292</v>
+        <v>0.5262869999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>7.68878</v>
+        <v>6.05721</v>
       </c>
       <c r="C19" t="n">
-        <v>7688.78</v>
+        <v>6057.21</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557217</v>
+        <v>0.557212</v>
       </c>
       <c r="B20" t="n">
-        <v>7.66643</v>
+        <v>6.06658</v>
       </c>
       <c r="C20" t="n">
-        <v>7666.43</v>
+        <v>6066.58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.5881420000000001</v>
+        <v>0.588137</v>
       </c>
       <c r="B21" t="n">
-        <v>7.64222</v>
+        <v>6.073090000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>7642.22</v>
+        <v>6073.09</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619184</v>
+        <v>0.619179</v>
       </c>
       <c r="B22" t="n">
-        <v>7.61623</v>
+        <v>6.07868</v>
       </c>
       <c r="C22" t="n">
-        <v>7616.23</v>
+        <v>6078.68</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650356</v>
+        <v>0.650351</v>
       </c>
       <c r="B23" t="n">
-        <v>7.589189999999999</v>
+        <v>6.0841</v>
       </c>
       <c r="C23" t="n">
-        <v>7589.19</v>
+        <v>6084.1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.6815290000000001</v>
+        <v>0.681524</v>
       </c>
       <c r="B24" t="n">
-        <v>7.56121</v>
+        <v>6.087569999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>7561.21</v>
+        <v>6087.57</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712706</v>
+        <v>0.712701</v>
       </c>
       <c r="B25" t="n">
-        <v>7.53241</v>
+        <v>6.09115</v>
       </c>
       <c r="C25" t="n">
-        <v>7532.41</v>
+        <v>6091.15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743878</v>
+        <v>0.743874</v>
       </c>
       <c r="B26" t="n">
-        <v>7.50242</v>
+        <v>6.09389</v>
       </c>
       <c r="C26" t="n">
-        <v>7502.42</v>
+        <v>6093.89</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775055</v>
+        <v>0.775051</v>
       </c>
       <c r="B27" t="n">
-        <v>7.4716</v>
+        <v>6.09651</v>
       </c>
       <c r="C27" t="n">
-        <v>7471.6</v>
+        <v>6096.51</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.8062279999999999</v>
+        <v>0.806223</v>
       </c>
       <c r="B28" t="n">
-        <v>7.44014</v>
+        <v>6.09844</v>
       </c>
       <c r="C28" t="n">
-        <v>7440.14</v>
+        <v>6098.44</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837401</v>
+        <v>0.837396</v>
       </c>
       <c r="B29" t="n">
-        <v>7.407850000000001</v>
+        <v>6.10033</v>
       </c>
       <c r="C29" t="n">
-        <v>7407.85</v>
+        <v>6100.33</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868578</v>
+        <v>0.868573</v>
       </c>
       <c r="B30" t="n">
-        <v>7.374270000000001</v>
+        <v>6.10187</v>
       </c>
       <c r="C30" t="n">
-        <v>7374.27</v>
+        <v>6101.87</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.89975</v>
+        <v>0.899745</v>
       </c>
       <c r="B31" t="n">
-        <v>7.339770000000001</v>
+        <v>6.10324</v>
       </c>
       <c r="C31" t="n">
-        <v>7339.77</v>
+        <v>6103.24</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.9309229999999999</v>
+        <v>0.930918</v>
       </c>
       <c r="B32" t="n">
-        <v>7.30393</v>
+        <v>6.104439999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>7303.93</v>
+        <v>6104.44</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9621</v>
+        <v>0.962095</v>
       </c>
       <c r="B33" t="n">
-        <v>7.267180000000001</v>
+        <v>6.10547</v>
       </c>
       <c r="C33" t="n">
-        <v>7267.18</v>
+        <v>6105.47</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993272</v>
+        <v>0.993267</v>
       </c>
       <c r="B34" t="n">
-        <v>7.22909</v>
+        <v>6.10628</v>
       </c>
       <c r="C34" t="n">
-        <v>7229.09</v>
+        <v>6106.28</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02458</v>
+        <v>1.02457</v>
       </c>
       <c r="B35" t="n">
-        <v>7.1893</v>
+        <v>6.1069</v>
       </c>
       <c r="C35" t="n">
-        <v>7189.3</v>
+        <v>6106.9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05596</v>
+        <v>1.05584</v>
       </c>
       <c r="B36" t="n">
-        <v>7.14819</v>
+        <v>6.10735</v>
       </c>
       <c r="C36" t="n">
-        <v>7148.19</v>
+        <v>6107.35</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08734</v>
+        <v>1.08681</v>
       </c>
       <c r="B37" t="n">
-        <v>7.10477</v>
+        <v>6.107640000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>7104.77</v>
+        <v>6107.64</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11873</v>
+        <v>1.11778</v>
       </c>
       <c r="B38" t="n">
-        <v>7.05924</v>
+        <v>6.10778</v>
       </c>
       <c r="C38" t="n">
-        <v>7059.24</v>
+        <v>6107.78</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.1501</v>
+        <v>1.14874</v>
       </c>
       <c r="B39" t="n">
-        <v>7.0113</v>
+        <v>6.107760000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>7011.3</v>
+        <v>6107.76</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.18148</v>
+        <v>1.17971</v>
       </c>
       <c r="B40" t="n">
-        <v>6.961060000000001</v>
+        <v>6.10762</v>
       </c>
       <c r="C40" t="n">
-        <v>6961.06</v>
+        <v>6107.62</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21281</v>
+        <v>1.21065</v>
       </c>
       <c r="B41" t="n">
-        <v>6.90849</v>
+        <v>6.10732</v>
       </c>
       <c r="C41" t="n">
-        <v>6908.49</v>
+        <v>6107.32</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24363</v>
+        <v>1.24124</v>
       </c>
       <c r="B42" t="n">
-        <v>6.8542</v>
+        <v>6.1069</v>
       </c>
       <c r="C42" t="n">
-        <v>6854.2</v>
+        <v>6106.9</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27485</v>
+        <v>1.27179</v>
       </c>
       <c r="B43" t="n">
-        <v>6.796520000000001</v>
+        <v>6.10634</v>
       </c>
       <c r="C43" t="n">
-        <v>6796.52</v>
+        <v>6106.34</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30562</v>
+        <v>1.30247</v>
       </c>
       <c r="B44" t="n">
-        <v>6.73714</v>
+        <v>6.10568</v>
       </c>
       <c r="C44" t="n">
-        <v>6737.14</v>
+        <v>6105.68</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33681</v>
+        <v>1.33405</v>
       </c>
       <c r="B45" t="n">
-        <v>6.67416</v>
+        <v>6.104880000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>6674.16</v>
+        <v>6104.88</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36761</v>
+        <v>1.36554</v>
       </c>
       <c r="B46" t="n">
-        <v>6.609640000000001</v>
+        <v>6.10395</v>
       </c>
       <c r="C46" t="n">
-        <v>6609.64</v>
+        <v>6103.95</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39884</v>
+        <v>1.39669</v>
       </c>
       <c r="B47" t="n">
-        <v>6.54168</v>
+        <v>6.10289</v>
       </c>
       <c r="C47" t="n">
-        <v>6541.68</v>
+        <v>6102.89</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42965</v>
+        <v>1.42784</v>
       </c>
       <c r="B48" t="n">
-        <v>6.472090000000001</v>
+        <v>6.10172</v>
       </c>
       <c r="C48" t="n">
-        <v>6472.09</v>
+        <v>6101.72</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.46082</v>
+        <v>1.45899</v>
       </c>
       <c r="B49" t="n">
-        <v>6.399100000000001</v>
+        <v>6.10044</v>
       </c>
       <c r="C49" t="n">
-        <v>6399.1</v>
+        <v>6100.44</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.49161</v>
+        <v>1.49013</v>
       </c>
       <c r="B50" t="n">
-        <v>6.324770000000001</v>
+        <v>6.09905</v>
       </c>
       <c r="C50" t="n">
-        <v>6324.77</v>
+        <v>6099.05</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52283</v>
+        <v>1.52128</v>
       </c>
       <c r="B51" t="n">
-        <v>6.247100000000001</v>
+        <v>6.09758</v>
       </c>
       <c r="C51" t="n">
-        <v>6247.1</v>
+        <v>6097.58</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55364</v>
+        <v>1.55206</v>
       </c>
       <c r="B52" t="n">
-        <v>6.16861</v>
+        <v>6.096</v>
       </c>
       <c r="C52" t="n">
-        <v>6168.61</v>
+        <v>6096</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58484</v>
+        <v>1.58278</v>
       </c>
       <c r="B53" t="n">
-        <v>6.087050000000001</v>
+        <v>6.09431</v>
       </c>
       <c r="C53" t="n">
-        <v>6087.05</v>
+        <v>6094.31</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61558</v>
+        <v>1.6135</v>
       </c>
       <c r="B54" t="n">
-        <v>6.005</v>
+        <v>6.0925</v>
       </c>
       <c r="C54" t="n">
-        <v>6005</v>
+        <v>6092.5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64683</v>
+        <v>1.64422</v>
       </c>
       <c r="B55" t="n">
-        <v>5.920050000000001</v>
+        <v>6.09061</v>
       </c>
       <c r="C55" t="n">
-        <v>5920.05</v>
+        <v>6090.61</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67751</v>
+        <v>1.67494</v>
       </c>
       <c r="B56" t="n">
-        <v>5.83541</v>
+        <v>6.08863</v>
       </c>
       <c r="C56" t="n">
-        <v>5835.41</v>
+        <v>6088.63</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70886</v>
+        <v>1.70567</v>
       </c>
       <c r="B57" t="n">
-        <v>5.74778</v>
+        <v>6.08653</v>
       </c>
       <c r="C57" t="n">
-        <v>5747.78</v>
+        <v>6086.53</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73959</v>
+        <v>1.737</v>
       </c>
       <c r="B58" t="n">
-        <v>5.661350000000001</v>
+        <v>6.08425</v>
       </c>
       <c r="C58" t="n">
-        <v>5661.35</v>
+        <v>6084.25</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.77087</v>
+        <v>1.76834</v>
       </c>
       <c r="B59" t="n">
-        <v>5.57312</v>
+        <v>6.08185</v>
       </c>
       <c r="C59" t="n">
-        <v>5573.12</v>
+        <v>6081.85</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.80174</v>
+        <v>1.79968</v>
       </c>
       <c r="B60" t="n">
-        <v>5.48574</v>
+        <v>6.07941</v>
       </c>
       <c r="C60" t="n">
-        <v>5485.74</v>
+        <v>6079.41</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.8328</v>
+        <v>1.83102</v>
       </c>
       <c r="B61" t="n">
-        <v>5.39809</v>
+        <v>6.07686</v>
       </c>
       <c r="C61" t="n">
-        <v>5398.09</v>
+        <v>6076.86</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86388</v>
+        <v>1.86221</v>
       </c>
       <c r="B62" t="n">
-        <v>5.31066</v>
+        <v>6.07418</v>
       </c>
       <c r="C62" t="n">
-        <v>5310.66</v>
+        <v>6074.18</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89454</v>
+        <v>1.8931</v>
       </c>
       <c r="B63" t="n">
-        <v>5.2247</v>
+        <v>6.0714</v>
       </c>
       <c r="C63" t="n">
-        <v>5224.7</v>
+        <v>6071.4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92592</v>
+        <v>1.924</v>
       </c>
       <c r="B64" t="n">
-        <v>5.13752</v>
+        <v>6.06852</v>
       </c>
       <c r="C64" t="n">
-        <v>5137.52</v>
+        <v>6068.52</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95668</v>
+        <v>1.95489</v>
       </c>
       <c r="B65" t="n">
-        <v>5.05295</v>
+        <v>6.06554</v>
       </c>
       <c r="C65" t="n">
-        <v>5052.95</v>
+        <v>6065.54</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98771</v>
+        <v>1.98579</v>
       </c>
       <c r="B66" t="n">
-        <v>4.96902</v>
+        <v>6.06246</v>
       </c>
       <c r="C66" t="n">
-        <v>4969.02</v>
+        <v>6062.46</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01888</v>
+        <v>2.01667</v>
       </c>
       <c r="B67" t="n">
-        <v>4.88673</v>
+        <v>6.059270000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>4886.73</v>
+        <v>6059.27</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04987</v>
+        <v>2.04757</v>
       </c>
       <c r="B68" t="n">
-        <v>4.80792</v>
+        <v>6.05602</v>
       </c>
       <c r="C68" t="n">
-        <v>4807.92</v>
+        <v>6056.02</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.08076</v>
+        <v>2.07846</v>
       </c>
       <c r="B69" t="n">
-        <v>4.72995</v>
+        <v>6.052630000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>4729.95</v>
+        <v>6052.63</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.11205</v>
+        <v>2.10962</v>
       </c>
       <c r="B70" t="n">
-        <v>4.65466</v>
+        <v>6.049060000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>4654.66</v>
+        <v>6049.06</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.14259</v>
+        <v>2.14071</v>
       </c>
       <c r="B71" t="n">
-        <v>4.58283</v>
+        <v>6.0454</v>
       </c>
       <c r="C71" t="n">
-        <v>4582.83</v>
+        <v>6045.4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17371</v>
+        <v>2.17179</v>
       </c>
       <c r="B72" t="n">
-        <v>4.51183</v>
+        <v>6.04166</v>
       </c>
       <c r="C72" t="n">
-        <v>4511.83</v>
+        <v>6041.66</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20533</v>
+        <v>2.20288</v>
       </c>
       <c r="B73" t="n">
-        <v>4.44352</v>
+        <v>6.03782</v>
       </c>
       <c r="C73" t="n">
-        <v>4443.52</v>
+        <v>6037.82</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23561</v>
+        <v>2.23396</v>
       </c>
       <c r="B74" t="n">
-        <v>4.378850000000001</v>
+        <v>6.03385</v>
       </c>
       <c r="C74" t="n">
-        <v>4378.85</v>
+        <v>6033.85</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26651</v>
+        <v>2.26505</v>
       </c>
       <c r="B75" t="n">
-        <v>4.31574</v>
+        <v>6.02976</v>
       </c>
       <c r="C75" t="n">
-        <v>4315.74</v>
+        <v>6029.76</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29843</v>
+        <v>2.29613</v>
       </c>
       <c r="B76" t="n">
-        <v>4.25377</v>
+        <v>6.02548</v>
       </c>
       <c r="C76" t="n">
-        <v>4253.77</v>
+        <v>6025.48</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32883</v>
+        <v>2.32722</v>
       </c>
       <c r="B77" t="n">
-        <v>4.195819999999999</v>
+        <v>6.02108</v>
       </c>
       <c r="C77" t="n">
-        <v>4195.82</v>
+        <v>6021.08</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35923</v>
+        <v>2.35831</v>
       </c>
       <c r="B78" t="n">
-        <v>4.14167</v>
+        <v>6.016529999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>4141.67</v>
+        <v>6016.53</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.39121</v>
+        <v>2.38939</v>
       </c>
       <c r="B79" t="n">
-        <v>4.08701</v>
+        <v>6.01182</v>
       </c>
       <c r="C79" t="n">
-        <v>4087.01</v>
+        <v>6011.82</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.42211</v>
+        <v>2.41979</v>
       </c>
       <c r="B80" t="n">
-        <v>4.035010000000001</v>
+        <v>6.00689</v>
       </c>
       <c r="C80" t="n">
-        <v>4035.01</v>
+        <v>6006.89</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.45327</v>
+        <v>2.44996</v>
       </c>
       <c r="B81" t="n">
-        <v>3.98556</v>
+        <v>6.001819999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>3985.56</v>
+        <v>6001.82</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.48487</v>
+        <v>2.48013</v>
       </c>
       <c r="B82" t="n">
-        <v>3.94139</v>
+        <v>5.99658</v>
       </c>
       <c r="C82" t="n">
-        <v>3941.39</v>
+        <v>5996.58</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51687</v>
+        <v>2.5103</v>
       </c>
       <c r="B83" t="n">
-        <v>3.90114</v>
+        <v>5.99125</v>
       </c>
       <c r="C83" t="n">
-        <v>3901.14</v>
+        <v>5991.25</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54778</v>
+        <v>2.54048</v>
       </c>
       <c r="B84" t="n">
-        <v>3.87603</v>
+        <v>5.985720000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>3876.03</v>
+        <v>5985.72</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.57765</v>
+        <v>2.57065</v>
       </c>
       <c r="B85" t="n">
-        <v>3.86929</v>
+        <v>5.98003</v>
       </c>
       <c r="C85" t="n">
-        <v>3869.29</v>
+        <v>5980.03</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60752</v>
+        <v>2.60082</v>
       </c>
       <c r="B86" t="n">
-        <v>3.85886</v>
+        <v>5.97419</v>
       </c>
       <c r="C86" t="n">
-        <v>3858.86</v>
+        <v>5974.19</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.63636</v>
+        <v>2.63099</v>
       </c>
       <c r="B87" t="n">
-        <v>3.84902</v>
+        <v>5.968229999999999</v>
       </c>
       <c r="C87" t="n">
-        <v>3849.02</v>
+        <v>5968.23</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66584</v>
+        <v>2.66116</v>
       </c>
       <c r="B88" t="n">
-        <v>3.83728</v>
+        <v>5.96217</v>
       </c>
       <c r="C88" t="n">
-        <v>3837.28</v>
+        <v>5962.17</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.69912</v>
+        <v>2.69133</v>
       </c>
       <c r="B89" t="n">
-        <v>3.82068</v>
+        <v>5.956</v>
       </c>
       <c r="C89" t="n">
-        <v>3820.68</v>
+        <v>5956</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.7324</v>
+        <v>2.7215</v>
       </c>
       <c r="B90" t="n">
-        <v>3.80488</v>
+        <v>5.94961</v>
       </c>
       <c r="C90" t="n">
-        <v>3804.88</v>
+        <v>5949.61</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.76568</v>
+        <v>2.75168</v>
       </c>
       <c r="B91" t="n">
-        <v>3.79117</v>
+        <v>5.94307</v>
       </c>
       <c r="C91" t="n">
-        <v>3791.17</v>
+        <v>5943.07</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79896</v>
+        <v>2.78185</v>
       </c>
       <c r="B92" t="n">
-        <v>3.7729</v>
+        <v>5.93632</v>
       </c>
       <c r="C92" t="n">
-        <v>3772.9</v>
+        <v>5936.32</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.83161</v>
+        <v>2.81202</v>
       </c>
       <c r="B93" t="n">
-        <v>3.75886</v>
+        <v>5.92948</v>
       </c>
       <c r="C93" t="n">
-        <v>3758.86</v>
+        <v>5929.48</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.86233</v>
+        <v>2.84219</v>
       </c>
       <c r="B94" t="n">
-        <v>3.73833</v>
+        <v>5.92253</v>
       </c>
       <c r="C94" t="n">
-        <v>3738.33</v>
+        <v>5922.53</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.89305</v>
+        <v>2.87236</v>
       </c>
       <c r="B95" t="n">
-        <v>3.72042</v>
+        <v>5.91542</v>
       </c>
       <c r="C95" t="n">
-        <v>3720.42</v>
+        <v>5915.42</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.92377</v>
+        <v>2.90253</v>
       </c>
       <c r="B96" t="n">
-        <v>3.70451</v>
+        <v>5.90804</v>
       </c>
       <c r="C96" t="n">
-        <v>3704.51</v>
+        <v>5908.04</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.95449</v>
+        <v>2.9327</v>
       </c>
       <c r="B97" t="n">
-        <v>3.68493</v>
+        <v>5.90041</v>
       </c>
       <c r="C97" t="n">
-        <v>3684.93</v>
+        <v>5900.41</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.98521</v>
+        <v>2.96437</v>
       </c>
       <c r="B98" t="n">
-        <v>3.66155</v>
+        <v>5.89232</v>
       </c>
       <c r="C98" t="n">
-        <v>3661.55</v>
+        <v>5892.32</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.01593</v>
+        <v>2.99686</v>
       </c>
       <c r="B99" t="n">
-        <v>3.64714</v>
+        <v>5.88392</v>
       </c>
       <c r="C99" t="n">
-        <v>3647.14</v>
+        <v>5883.92</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.04566</v>
+        <v>3.02935</v>
       </c>
       <c r="B100" t="n">
-        <v>3.63061</v>
+        <v>5.875319999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>3630.61</v>
+        <v>5875.32</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.07382</v>
+        <v>3.06094</v>
       </c>
       <c r="B101" t="n">
-        <v>3.61437</v>
+        <v>5.8665</v>
       </c>
       <c r="C101" t="n">
-        <v>3614.37</v>
+        <v>5866.5</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.10198</v>
+        <v>3.09244</v>
       </c>
       <c r="B102" t="n">
-        <v>3.59811</v>
+        <v>5.85747</v>
       </c>
       <c r="C102" t="n">
-        <v>3598.11</v>
+        <v>5857.47</v>
       </c>
     </row>
   </sheetData>
